--- a/data/breweriesByState/TN.xlsx
+++ b/data/breweriesByState/TN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NikhilStuff/Desktop/beer_data/data/breweriesByState/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF7CFA1-2064-3745-B01A-CE8FCC25B898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51515146-0856-0A4E-B251-337A542FC3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="6960" windowWidth="22840" windowHeight="9680" xr2:uid="{19B24BE7-AEC1-5747-B334-C5980CEF4927}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{19B24BE7-AEC1-5747-B334-C5980CEF4927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -453,14 +453,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -479,18 +471,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -805,72 +795,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4B18A7-85AE-FD40-A517-0EA57B17DF16}">
   <dimension ref="A1:A141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:XFD137"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -878,7 +871,7 @@
       <c r="A16" s="1"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -886,17 +879,17 @@
       <c r="A20" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -904,12 +897,12 @@
       <c r="A26" s="1"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -917,102 +910,102 @@
       <c r="A31" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1020,37 +1013,37 @@
       <c r="A54" s="1"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1058,17 +1051,17 @@
       <c r="A64" s="1"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1076,12 +1069,12 @@
       <c r="A70" s="1"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1091,72 +1084,72 @@
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1166,42 +1159,42 @@
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1214,62 +1207,62 @@
       <c r="A100" s="1"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1277,203 +1270,100 @@
       <c r="A115" s="1"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3"/>
+      <c r="A117" s="2"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3"/>
+      <c r="A127" s="2"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="3"/>
+      <c r="A137" s="2"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="3" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="cite_note-1" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-1" xr:uid="{62BF5CC5-36A8-164E-A0BE-DD423F1DB4E9}"/>
-    <hyperlink ref="A4" r:id="rId2" location="cite_note-2" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-2" xr:uid="{2342EC2D-DEA8-B94E-9480-426BABE42B32}"/>
-    <hyperlink ref="A5" r:id="rId3" location="cite_note-3" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-3" xr:uid="{5F2D7B64-65C5-0E41-98B5-29BF560E8421}"/>
-    <hyperlink ref="A6" r:id="rId4" location="cite_note-4" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-4" xr:uid="{5A3D1B8C-AFD2-E846-9203-92F45099771D}"/>
-    <hyperlink ref="A7" r:id="rId5" location="cite_note-5" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-5" xr:uid="{EFF17AD3-66EE-F843-B3C7-9D304438E955}"/>
-    <hyperlink ref="A8" r:id="rId6" location="cite_note-6" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-6" xr:uid="{952942A5-2199-0E4F-805C-170E28A138FA}"/>
-    <hyperlink ref="A9" r:id="rId7" location="cite_note-7" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-7" xr:uid="{CB19D81C-7318-BF46-B8E8-0907A03625C8}"/>
-    <hyperlink ref="A10" r:id="rId8" location="cite_note-8" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-8" xr:uid="{0F84D7A1-18FD-1B46-A40F-76E2E17D6CB8}"/>
-    <hyperlink ref="A11" r:id="rId9" location="cite_note-9" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-9" xr:uid="{21D704F9-04DA-E947-BD6B-BA7EE35C4BB7}"/>
-    <hyperlink ref="A12" r:id="rId10" location="cite_note-10" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-10" xr:uid="{8C021968-53CC-D640-9EFC-96B99EEAC242}"/>
-    <hyperlink ref="A13" r:id="rId11" location="cite_note-11" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-11" xr:uid="{8EAABA74-7207-7948-A7B2-50C2C0C9B029}"/>
-    <hyperlink ref="A14" r:id="rId12" location="cite_note-12" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-12" xr:uid="{31744B32-06DE-6C48-AD8D-424D7E929A71}"/>
-    <hyperlink ref="A18" r:id="rId13" location="cite_note-13" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-13" xr:uid="{767E60B7-D8FE-F445-A069-A6EF38D2E5A5}"/>
-    <hyperlink ref="A22" r:id="rId14" location="cite_note-14" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-14" xr:uid="{B854F224-1C80-C94C-8A24-FAFB75CD535C}"/>
-    <hyperlink ref="A23" r:id="rId15" location="cite_note-15" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-15" xr:uid="{35F75041-90ED-044A-941D-AFD0C73F6527}"/>
-    <hyperlink ref="A24" r:id="rId16" location="cite_note-16" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-16" xr:uid="{4245F559-3DFB-5347-8A61-E4F66F498F40}"/>
-    <hyperlink ref="A28" r:id="rId17" location="cite_note-17" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-17" xr:uid="{8BBC81CF-54AA-E64C-B51B-041291F2B783}"/>
-    <hyperlink ref="A29" r:id="rId18" location="cite_note-18" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-18" xr:uid="{2AEA0714-A6CB-E44F-AE71-C00A2919C3A8}"/>
-    <hyperlink ref="A33" r:id="rId19" location="cite_note-19" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-19" xr:uid="{93BBB934-7C1A-7445-B3D3-366EE0AE9D63}"/>
-    <hyperlink ref="A34" r:id="rId20" location="cite_note-20" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-20" xr:uid="{EEC29BB4-36D2-D14A-9FD7-FD408F3DE89D}"/>
-    <hyperlink ref="A35" r:id="rId21" location="cite_note-21" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-21" xr:uid="{251DE8EE-AB46-7D45-85ED-C5AC630783EB}"/>
-    <hyperlink ref="A36" r:id="rId22" location="cite_note-22" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-22" xr:uid="{3D02FE37-1413-634B-BBA5-218DB997721E}"/>
-    <hyperlink ref="A37" r:id="rId23" location="cite_note-23" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-23" xr:uid="{A934A1D3-1A5F-D44E-A8A1-5180287F8D5F}"/>
-    <hyperlink ref="A38" r:id="rId24" location="cite_note-24" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-24" xr:uid="{F1BDDEEB-E39A-EA4B-9F39-C1B2BFDF42BC}"/>
-    <hyperlink ref="A39" r:id="rId25" location="cite_note-25" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-25" xr:uid="{D072A824-06DA-7B47-8B6E-98D7DEE9F949}"/>
-    <hyperlink ref="A40" r:id="rId26" location="cite_note-26" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-26" xr:uid="{520E95C5-BA40-184F-9917-341AF5B52BCB}"/>
-    <hyperlink ref="A41" r:id="rId27" location="cite_note-27" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-27" xr:uid="{986FD8F8-CDC5-9D41-AF8D-A663156E3941}"/>
-    <hyperlink ref="A42" r:id="rId28" location="cite_note-28" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-28" xr:uid="{4A7AFF8C-A671-154B-877A-B1BE94C36196}"/>
-    <hyperlink ref="A43" r:id="rId29" location="cite_note-29" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-29" xr:uid="{45CD3C03-B456-0B46-96CE-C676F304F7E7}"/>
-    <hyperlink ref="A44" r:id="rId30" location="cite_note-30" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-30" xr:uid="{99DD6583-3DAA-064B-8B6F-C18E0E7A1044}"/>
-    <hyperlink ref="A45" r:id="rId31" location="cite_note-31" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-31" xr:uid="{4C7A2244-434B-1D44-97C3-D4648AE25291}"/>
-    <hyperlink ref="A46" r:id="rId32" location="cite_note-32" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-32" xr:uid="{75141A49-D4BF-434B-8606-9E37E7B985AB}"/>
-    <hyperlink ref="A47" r:id="rId33" location="cite_note-33" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-33" xr:uid="{F9AF615E-DF12-9549-8794-126A4689A55C}"/>
-    <hyperlink ref="A48" r:id="rId34" location="cite_note-34" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-34" xr:uid="{E7C92116-CDEB-ED40-849D-2BC0B68999F5}"/>
-    <hyperlink ref="A49" r:id="rId35" location="cite_note-35" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-35" xr:uid="{CB835A23-78C5-B341-90E5-B8966B89F4E6}"/>
-    <hyperlink ref="A50" r:id="rId36" location="cite_note-36" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-36" xr:uid="{A6F6AB87-69E7-CD4D-A768-D7F965793F69}"/>
-    <hyperlink ref="A51" r:id="rId37" location="cite_note-37" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-37" xr:uid="{D7F73A39-F053-1D4A-8CE5-D2A18ED4ABF8}"/>
-    <hyperlink ref="A52" r:id="rId38" location="cite_note-38" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-38" xr:uid="{A27DC874-8D78-5B48-B938-1717FB8D5A64}"/>
-    <hyperlink ref="A56" r:id="rId39" location="cite_note-39" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-39" xr:uid="{2FD29EB0-604A-2B40-BE06-A3D38FA69D7F}"/>
-    <hyperlink ref="A57" r:id="rId40" location="cite_note-40" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-40" xr:uid="{CE0629F5-8805-7843-B512-9470477B442E}"/>
-    <hyperlink ref="A58" r:id="rId41" location="cite_note-41" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-41" xr:uid="{589396AC-12EB-2449-A257-812C81EA461E}"/>
-    <hyperlink ref="A59" r:id="rId42" location="cite_note-42" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-42" xr:uid="{FB1423B8-40E2-484A-8903-0C94A1EA59C1}"/>
-    <hyperlink ref="A60" r:id="rId43" location="cite_note-43" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-43" xr:uid="{15A0CA2B-4A29-5D41-874B-B33A2F1B0CA9}"/>
-    <hyperlink ref="A61" r:id="rId44" location="cite_note-44" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-44" xr:uid="{C1ADCF83-B129-0C4D-9283-D472E287B4B5}"/>
-    <hyperlink ref="A62" r:id="rId45" location="cite_note-45" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-45" xr:uid="{2358B312-1990-9248-B90F-2A970B192DC0}"/>
-    <hyperlink ref="A66" r:id="rId46" location="cite_note-46" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-46" xr:uid="{C7B2D2F6-1730-5543-B98D-75C17DAECE2D}"/>
-    <hyperlink ref="A67" r:id="rId47" location="cite_note-47" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-47" xr:uid="{9A44842B-F5E4-9440-8A01-15570970AC8F}"/>
-    <hyperlink ref="A68" r:id="rId48" location="cite_note-48" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-48" xr:uid="{4D3B9FC7-4C56-A948-B93E-F3794000C205}"/>
-    <hyperlink ref="A72" r:id="rId49" location="cite_note-49" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-49" xr:uid="{7DCAA111-DEEC-EC42-844B-44C6202E7159}"/>
-    <hyperlink ref="A73" r:id="rId50" location="cite_note-50" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-50" xr:uid="{9BB3AE2B-C9CB-A740-87BC-7EDA947CD35A}"/>
-    <hyperlink ref="A75" r:id="rId51" location="cite_note-52" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-52" xr:uid="{DCC24D0D-5724-3848-8C87-84F11B44F1B8}"/>
-    <hyperlink ref="A76" r:id="rId52" location="cite_note-53" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-53" xr:uid="{32EE3F23-E9C6-7E4A-BEBA-3A010EF55F06}"/>
-    <hyperlink ref="A77" r:id="rId53" location="cite_note-54" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-54" xr:uid="{CBE9769D-F97C-0044-BE40-C1C0A11C13D3}"/>
-    <hyperlink ref="A78" r:id="rId54" location="cite_note-55" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-55" xr:uid="{1D3DB09C-390A-EF43-A900-3D540D4AD35A}"/>
-    <hyperlink ref="A79" r:id="rId55" location="cite_note-56" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-56" xr:uid="{51AE09DB-3A7B-DC4C-B77C-4C0728AD96E9}"/>
-    <hyperlink ref="A80" r:id="rId56" location="cite_note-57" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-57" xr:uid="{9CB4ED0D-2EE1-4943-9D64-E96405D37C0D}"/>
-    <hyperlink ref="A81" r:id="rId57" location="cite_note-58" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-58" xr:uid="{DE18D8D7-3C3C-EB46-8ECF-5C4713E9638E}"/>
-    <hyperlink ref="A82" r:id="rId58" location="cite_note-59" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-59" xr:uid="{E3F68110-F464-704E-9ABB-982F9C493800}"/>
-    <hyperlink ref="A83" r:id="rId59" location="cite_note-60" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-60" xr:uid="{3C8E2A2B-FEC4-554D-B9AC-32FB8CF29E77}"/>
-    <hyperlink ref="A84" r:id="rId60" location="cite_note-61" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-61" xr:uid="{E67B01A9-D3A3-D043-8751-08E3806B1B22}"/>
-    <hyperlink ref="A85" r:id="rId61" location="cite_note-62" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-62" xr:uid="{E4CB162F-7736-5F41-8124-EA8EF823E9A8}"/>
-    <hyperlink ref="A86" r:id="rId62" location="cite_note-63" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-63" xr:uid="{D0A8F8CD-D709-1E4B-B20A-14906E1D41EB}"/>
-    <hyperlink ref="A87" r:id="rId63" location="cite_note-64" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-64" xr:uid="{E8A2BD2F-9689-3F44-A59A-608F9F49C386}"/>
-    <hyperlink ref="A88" r:id="rId64" location="cite_note-65" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-65" xr:uid="{14A6B13A-EAF4-2A4D-8F4D-D52C9650256E}"/>
-    <hyperlink ref="A90" r:id="rId65" location="cite_note-67" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-67" xr:uid="{491B2899-A06E-A14D-BA9F-FBC64659A4EE}"/>
-    <hyperlink ref="A91" r:id="rId66" location="cite_note-68" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-68" xr:uid="{26D8CE04-019E-B349-9212-9EB4549CF63A}"/>
-    <hyperlink ref="A92" r:id="rId67" location="cite_note-69" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-69" xr:uid="{C817C1FD-35FC-9F44-9936-923FC322BCDE}"/>
-    <hyperlink ref="A93" r:id="rId68" location="cite_note-70" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-70" xr:uid="{CC70022E-ECE2-4143-B187-FF7DAEB75322}"/>
-    <hyperlink ref="A94" r:id="rId69" location="cite_note-71" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-71" xr:uid="{13688F18-AFA3-9341-950D-4A74FD3EFE1D}"/>
-    <hyperlink ref="A95" r:id="rId70" location="cite_note-72" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-72" xr:uid="{DC568A36-DB29-3240-A76C-1FEC2CB77063}"/>
-    <hyperlink ref="A96" r:id="rId71" location="cite_note-73" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-73" xr:uid="{292CE3CE-43D6-C942-A5FC-8AFF1AA72114}"/>
-    <hyperlink ref="A97" r:id="rId72" location="cite_note-74" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-74" xr:uid="{BEBC5C5A-AFAC-9E4A-888F-28AAA2C5BAB3}"/>
-    <hyperlink ref="A102" r:id="rId73" location="cite_note-76" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-76" xr:uid="{AA2992A2-DF84-B840-9A35-96455AB19736}"/>
-    <hyperlink ref="A103" r:id="rId74" location="cite_note-77" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-77" xr:uid="{F857DC53-9108-6D4A-9B1F-27790C5E61DB}"/>
-    <hyperlink ref="A104" r:id="rId75" location="cite_note-78" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-78" xr:uid="{4075D68F-478F-4A4D-991B-410644519B75}"/>
-    <hyperlink ref="A105" r:id="rId76" location="cite_note-79" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-79" xr:uid="{E6F0BE23-315C-1448-8B19-A4380E64D80B}"/>
-    <hyperlink ref="A106" r:id="rId77" location="cite_note-80" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-80" xr:uid="{267ED4C1-85C3-0B4B-B92C-A2D093C91C6C}"/>
-    <hyperlink ref="A107" r:id="rId78" location="cite_note-81" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-81" xr:uid="{A61E8568-B43D-F840-BA79-3703D7216762}"/>
-    <hyperlink ref="A108" r:id="rId79" location="cite_note-82" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-82" xr:uid="{14AD40CE-0B3E-1743-A662-AB03EB61012C}"/>
-    <hyperlink ref="A109" r:id="rId80" location="cite_note-83" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-83" xr:uid="{0E1D2BCE-5648-3648-B106-C398A4C7E7C7}"/>
-    <hyperlink ref="A110" r:id="rId81" location="cite_note-84" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-84" xr:uid="{1A93CBD0-87BB-104F-8A48-DA8D34678CD6}"/>
-    <hyperlink ref="A111" r:id="rId82" location="cite_note-85" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-85" xr:uid="{F79D1D63-1DE6-AC4E-9024-20FE7CAAE186}"/>
-    <hyperlink ref="A112" r:id="rId83" location="cite_note-86" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-86" xr:uid="{773A82B3-5B74-2346-8D07-269E5ABA9CA9}"/>
-    <hyperlink ref="A113" r:id="rId84" location="cite_note-87" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-87" xr:uid="{B6C812D3-1C60-BE4E-AEDE-CB879BE45506}"/>
-    <hyperlink ref="A119" r:id="rId85" location="cite_note-88" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-88" xr:uid="{46581A37-AD5A-C54E-8421-24B5A2337EFB}"/>
-    <hyperlink ref="A120" r:id="rId86" location="cite_note-89" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-89" xr:uid="{29263855-D8F5-9B4D-9FF3-5478A79799FA}"/>
-    <hyperlink ref="A121" r:id="rId87" location="cite_note-90" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-90" xr:uid="{43E4D573-B245-8E4E-8CC6-4E3B6BB52A4A}"/>
-    <hyperlink ref="A122" r:id="rId88" location="cite_note-91" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-91" xr:uid="{E61B672F-61C1-AB42-9A17-5C25B8B86240}"/>
-    <hyperlink ref="A123" r:id="rId89" location="cite_note-92" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-92" xr:uid="{6D7A07DA-AA41-6A40-B33D-5A838E95EBB4}"/>
-    <hyperlink ref="A124" r:id="rId90" location="cite_note-93" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-93" xr:uid="{FE5613CB-3544-0243-A499-A3183F29D212}"/>
-    <hyperlink ref="A125" r:id="rId91" location="cite_note-94" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-94" xr:uid="{9702396F-D471-614D-B218-B86EAA51CE03}"/>
-    <hyperlink ref="A129" r:id="rId92" location="cite_note-95" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-95" xr:uid="{979E922E-67CB-1E4A-BCD8-9489E46CC80D}"/>
-    <hyperlink ref="A130" r:id="rId93" display="https://www.columbiadailyherald.com/news/20190908/bad-idea-brewing-opens-in-columbia-arts-building" xr:uid="{62EB7053-F40D-4A48-8BE1-B4F67CFE9A88}"/>
-    <hyperlink ref="A131" r:id="rId94" location="cite_note-96" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-96" xr:uid="{024662F6-172C-F24C-A15D-FE2C4182F9A0}"/>
-    <hyperlink ref="A132" r:id="rId95" location="cite_note-97" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-97" xr:uid="{C055B412-7475-494F-9536-51C72A5B7828}"/>
-    <hyperlink ref="A133" r:id="rId96" location="cite_note-98" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-98" xr:uid="{C99F6BB1-9DC5-3245-AD70-E3273433EC04}"/>
-    <hyperlink ref="A134" r:id="rId97" location="cite_note-99" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-99" xr:uid="{446C3169-1966-B14D-BF8A-E1D87F562ABE}"/>
-    <hyperlink ref="A135" r:id="rId98" location="cite_note-100" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-100" xr:uid="{44D8D7C0-D313-B44A-8EC6-AA1F229799C4}"/>
-    <hyperlink ref="A139" r:id="rId99" location="cite_note-101" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-101" xr:uid="{1F1DCE23-5E5D-A84B-AFC0-7A58BAF78E08}"/>
-    <hyperlink ref="A140" r:id="rId100" location="cite_note-102" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-102" xr:uid="{C0911934-764F-7842-98A8-4FC100E01E53}"/>
-    <hyperlink ref="A141" r:id="rId101" location="cite_note-103" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Tennessee - cite_note-103" xr:uid="{C6DFD9D0-BD66-674A-A485-DB2C1B74ACB2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>